--- a/Pegada de Carbono Report.xlsx
+++ b/Pegada de Carbono Report.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://muvamozorg-my.sharepoint.com/personal/janio_muianga_muvamoz_org/Documents/Departamento MIS/PROJECTOS/SISTEMA DE MONITORIA/PAM VERDE/Dashboard_Empreendedorismo_Versão1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_1BB4223F8C1E2C4FD647F310C7B2DF9959492C7A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC700382-051D-474D-88DD-1A7435C8C55E}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_1BB4223F8C1E2C4FD647F310C7B2DF9959492C7A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FE7DA15-360D-4A19-98F5-6F17C66B9440}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pecada_de_Carbono_Report" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pecada_de_Carbono_Report!$G$1:$G$113</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="162">
   <si>
     <t>Data de Registo</t>
   </si>
@@ -497,9 +500,6 @@
   </si>
   <si>
     <t>MERCIA YOLANDA CHAMBISSE MONDLANE</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>MARCIA MUIANGA</t>
@@ -909,46 +909,46 @@
   <dimension ref="A1:AF113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D9"/>
+      <selection activeCell="G106" sqref="G106:G113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.7265625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="32.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="61.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="49.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="77.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="98.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="109.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="104.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="52.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="61.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="49.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="77.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="98.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="109.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="104.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="52.77734375" style="4" customWidth="1"/>
     <col min="19" max="19" width="18" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="86.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="98.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="42.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="48.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="51.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="49.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="60.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="55.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="28.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="25.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="8.7265625" style="4"/>
+    <col min="20" max="20" width="86.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="98.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="42.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="48.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="51.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="49.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="60.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="55.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="25.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="28.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>45377</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>45377</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>45377</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>45377</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>45377</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>45377</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>45377</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>45377</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>45377</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>45377</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>45377</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>45377</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>45377</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>45377</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>45377</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>45377</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>45377</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>45377</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>45377</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>45377</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>45377</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>45377</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>45377</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>45377</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>45377</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>45377</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>45376</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>45376</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>45376</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>45376</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>45376</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>45376</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>45376</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>45376</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>45376</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>45376</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>45376</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>45376</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>45373</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>45373</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>45373</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>45373</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>45373</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>45373</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45373</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>45373</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>45373</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>45373</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>45373</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>45373</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:32" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>45373</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:32" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>45373</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>45373</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>45373</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>45373</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>45373</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>45373</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>45373</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>45373</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>45373</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>45373</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>45373</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>45373</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>45373</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>45373</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>45373</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>45373</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>45373</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>45373</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>45373</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>45373</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>45373</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>45373</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>45373</v>
       </c>
@@ -8298,7 +8298,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>45373</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>45373</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>45373</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>45373</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>45373</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>45373</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>45373</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>45373</v>
       </c>
@@ -9082,7 +9082,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>45373</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>45373</v>
       </c>
@@ -9278,7 +9278,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>45373</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>45373</v>
       </c>
@@ -9474,7 +9474,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>45373</v>
       </c>
@@ -9572,7 +9572,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>45373</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>45373</v>
       </c>
@@ -9768,7 +9768,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>45373</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>45373</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>45373</v>
       </c>
@@ -10062,7 +10062,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>45373</v>
       </c>
@@ -10160,7 +10160,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>45373</v>
       </c>
@@ -10258,7 +10258,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>45373</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>45373</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>45373</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>45373</v>
       </c>
@@ -10650,7 +10650,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>45373</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>45373</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>45373</v>
       </c>
@@ -10944,7 +10944,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>45373</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>45373</v>
       </c>
@@ -11140,7 +11140,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>45373</v>
       </c>
@@ -11238,7 +11238,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="106" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>45373</v>
       </c>
@@ -11336,7 +11336,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="107" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>45373</v>
       </c>
@@ -11356,7 +11356,7 @@
         <v>36</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>57</v>
@@ -11434,12 +11434,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="108" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>45373</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>130</v>
@@ -11454,7 +11454,7 @@
         <v>36</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>38</v>
@@ -11532,12 +11532,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="109" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>45373</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>130</v>
@@ -11552,7 +11552,7 @@
         <v>36</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>57</v>
@@ -11630,12 +11630,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="110" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>45373</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>79</v>
@@ -11650,7 +11650,7 @@
         <v>36</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="H110" s="4" t="s">
         <v>38</v>
@@ -11728,12 +11728,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="111" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>45373</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>79</v>
@@ -11748,7 +11748,7 @@
         <v>36</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="H111" s="4" t="s">
         <v>57</v>
@@ -11826,12 +11826,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="112" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>45373</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>79</v>
@@ -11846,7 +11846,7 @@
         <v>36</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="H112" s="4" t="s">
         <v>38</v>
@@ -11924,12 +11924,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="113" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>45373</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>79</v>
@@ -11944,7 +11944,7 @@
         <v>36</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="H113" s="4" t="s">
         <v>57</v>
@@ -12023,6 +12023,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="G1:G113" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Pegada de Carbono Report.xlsx
+++ b/Pegada de Carbono Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://muvamozorg-my.sharepoint.com/personal/janio_muianga_muvamoz_org/Documents/Departamento MIS/PROJECTOS/SISTEMA DE MONITORIA/PAM VERDE/Dashboard_Empreendedorismo_Versão1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_1BB4223F8C1E2C4FD647F310C7B2DF9959492C7A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FE7DA15-360D-4A19-98F5-6F17C66B9440}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_1BB4223F8C1E2C4FD647F310C7B2DF9959492C7A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EECA2848-4981-44DE-901B-46A121829E38}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Pecada_de_Carbono_Report" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pecada_de_Carbono_Report!$G$1:$G$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pecada_de_Carbono_Report!$D$1:$D$113</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -909,7 +909,7 @@
   <dimension ref="A1:AF113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106:G113"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1253,7 +1253,7 @@
         <v>33</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>35</v>
@@ -12023,7 +12023,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="G1:G113" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="D1:D113" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>